--- a/reports/results.xlsx
+++ b/reports/results.xlsx
@@ -8,13 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole.r.frank/Projects/credit-decisioning/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327CA3D-863F-8C43-8BCD-4FE4F765CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECF7636-5197-CF4A-AE73-FB7183E5E773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2900" windowWidth="26440" windowHeight="15180" xr2:uid="{6A1FA70B-9170-1F41-84AC-CE2830F12BF1}"/>
+    <workbookView xWindow="30240" yWindow="1340" windowWidth="25760" windowHeight="18300" activeTab="4" xr2:uid="{6A1FA70B-9170-1F41-84AC-CE2830F12BF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model_Comparison" sheetId="5" r:id="rId2"/>
+    <sheet name="Logisitc Regression Results" sheetId="4" r:id="rId3"/>
+    <sheet name="XGBoost Results" sheetId="3" r:id="rId4"/>
+    <sheet name="Random Forest Results" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Logisitc Regression Results'!$B$27:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Random Forest Results'!$B$19:$E$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'XGBoost Results'!$B$18:$E$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Logisitc Regression Results'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Logisitc Regression Results'!$E$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'XGBoost Results'!$E$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'XGBoost Results'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'XGBoost Results'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'XGBoost Results'!$E$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'XGBoost Results'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Logisitc Regression Results'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Logisitc Regression Results'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Logisitc Regression Results'!$E$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Logisitc Regression Results'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Logisitc Regression Results'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Logisitc Regression Results'!$E$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Logisitc Regression Results'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'XGBoost Results'!$B$4:$B$10</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="158">
   <si>
     <t>Hyperparameters</t>
   </si>
@@ -273,13 +297,250 @@
   </si>
   <si>
     <t>Cross Validaton time (seconds):  8.21</t>
+  </si>
+  <si>
+    <t>Logisitc Regression Classifier</t>
+  </si>
+  <si>
+    <t>LG Acc: 0.65 (+/- 0.02)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.70 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  279.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clf = LogisticRegression(penalty='l2',class_weight='balanced',solver='liblinear',max_iter=500,random_state=rand_st) </t>
+  </si>
+  <si>
+    <t>change solver to lbfgs</t>
+  </si>
+  <si>
+    <t>LG Acc: 0.59 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.65 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  80.62</t>
+  </si>
+  <si>
+    <t>change max iter to 1000</t>
+  </si>
+  <si>
+    <t>LG Acc: 0.60 (+/- 0.03)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.66 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  154.33</t>
+  </si>
+  <si>
+    <t>keep max iter at 1000 and put solver back to liblinear, change class weight to None</t>
+  </si>
+  <si>
+    <t>LG Acc: 0.73 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.68 (+/- 0.04)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  104.3</t>
+  </si>
+  <si>
+    <t>restore baseline but this time set max iterations to 1000</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  273.27</t>
+  </si>
+  <si>
+    <t>set class_weight to None and set penalty to l1</t>
+  </si>
+  <si>
+    <t>LG Acc: 0.74 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.71 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  129.81</t>
+  </si>
+  <si>
+    <t>Take model from previous run and add wrapper feature selection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected features:  ['delinq_2yrs', 'collections_12_mths_ex_med', 'open_il_12m', 'open_rv_12m', 'num_tl_30dpd', 'tax_liens', 'sub_grade_num', 'home_ANY', 'home_MORTGAGE', 'home_OWN', 'state_AK', 'state_AL', 'state_AR', 'state_CO', 'state_DC', 'state_FL', 'state_GA', 'state_HI', 'state_ID', 'state_IL', 'state_LA', 'state_MD', 'state_ME', 'state_MO', 'state_MS', 'state_MT', 'state_NE', 'state_NH', 'state_NJ', 'state_NM', 'state_NY', 'state_OK', 'state_OR', 'state_RI', 'state_SC', 'state_TX', 'state_UT', 'state_VT', 'state_WA', 'state_WI', 'state_WV', 'state_WY', 'verification_status_Not Verified', 'purpose_car', 'purpose_credit_card', 'purpose_debt_consolidation', 'purpose_house', 'purpose_medical', 'purpose_moving', 'purpose_renewable_energy', 'purpose_small_business', 'application_type_Individual', 'application_type_Joint App', 'disbursement_method_Cash'] </t>
+  </si>
+  <si>
+    <t>LG Acc: 0.73 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>LG AUC: 0.69 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  8.49</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>AUC (Area Under Curve)</t>
+  </si>
+  <si>
+    <t>CV Compute Time (s)</t>
+  </si>
+  <si>
+    <t>0.74 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>0.71 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>n_estimators</t>
+  </si>
+  <si>
+    <t>criterion</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>min_samples_split</t>
+  </si>
+  <si>
+    <t>class_weight</t>
+  </si>
+  <si>
+    <t>gini</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>balanced</t>
+  </si>
+  <si>
+    <t>Cross Validaton time (seconds):  243.44</t>
+  </si>
+  <si>
+    <t>FS Run</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning Table:</t>
+  </si>
+  <si>
+    <t>Hyperparemeters per Run</t>
+  </si>
+  <si>
+    <t>subsample</t>
+  </si>
+  <si>
+    <t>colsample_bytree</t>
+  </si>
+  <si>
+    <t>0.75 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>0.73 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>0.72 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.75 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.74 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>Use below for report</t>
+  </si>
+  <si>
+    <t>use below for report</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>max_iter</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>liblinear</t>
+  </si>
+  <si>
+    <t>lbfgs</t>
+  </si>
+  <si>
+    <t>0.65 (+/- 0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.70 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>0.59 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>0.65 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>0.60 (+/- 0.03)</t>
+  </si>
+  <si>
+    <t>0.66 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>0.68 (+/- 0.04)</t>
+  </si>
+  <si>
+    <t>0.70 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>0.73 (+/- 0.00)</t>
+  </si>
+  <si>
+    <t>0.69 (+/- 0.01)</t>
+  </si>
+  <si>
+    <t>Use below in report</t>
+  </si>
+  <si>
+    <t>Tuned Model</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier (without FS)</t>
+  </si>
+  <si>
+    <t>XGBoost Classifier (without FS)</t>
+  </si>
+  <si>
+    <t>Logisitc Regression Classifier (with FS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -287,16 +548,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -304,15 +612,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,6 +718,3253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="none"/>
+              <a:t>Logisitc Regression Compute Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Logisitc Regression Results'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CV Compute Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Logisitc Regression Results'!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FS Run</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Logisitc Regression Results'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9E23-DE42-9C4D-C8E8D0A87A5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1804555519"/>
+        <c:axId val="1804562239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1804555519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804562239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804562239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804555519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="none"/>
+              <a:t>XGBoost Compute Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'XGBoost Results'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CV Compute Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'XGBoost Results'!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FS Run</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'XGBoost Results'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E631-CC48-BDAC-603DF9A0C16E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1804555519"/>
+        <c:axId val="1804562239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1804555519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804562239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804562239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804555519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" u="none"/>
+              <a:t>Random Forest Compute Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Random Forest Results'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CV Compute Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Random Forest Results'!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>FS Run</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Random Forest Results'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>296.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>224.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>666.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-190A-A640-A728-21F8E0CDAAB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1804555519"/>
+        <c:axId val="1804562239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1804555519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804562239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804562239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804555519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EEB761-360E-8042-8C02-9AE93FFB1095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A088A2-F9CB-9949-9E36-17E4DF47D8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>165893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B91204-CA7C-5CFE-70C5-EC375D5E8B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D0659-CD53-B64F-B7EE-A6B19E93EB80}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,12 +4296,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -913,268 +4550,268 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>12</v>
+      </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>1</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B73" t="s">
         <v>44</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C73" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>3</v>
-      </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>4</v>
-      </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>5</v>
-      </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,20 +4821,20 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,53 +4844,1598 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0E4F2-15FA-5849-943C-4C7DF072BD33}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="6">
+        <v>243.44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="16">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE5098F-55ED-8E45-9884-68CBBFC5ED13}">
+  <dimension ref="B1:N34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="7" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="J2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8.49</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6">
+        <v>129.81</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="6">
+        <v>273.27</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="6">
+        <v>104.3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="6">
+        <v>154.33000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="6">
+        <v>80.62</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="6">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="6">
+        <v>279.60000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="6">
+        <v>80.62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="6">
+        <v>154.33000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="6">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="6">
+        <v>273.27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="6">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="6">
+        <v>129.81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="9">
+        <v>8.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B27:E27" xr:uid="{AFE5098F-55ED-8E45-9884-68CBBFC5ED13}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:E34">
+      <sortCondition ref="B27:B34"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B26:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECB6F38-5054-EC46-AA83-F6EE3598F630}">
+  <dimension ref="B1:O25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="7" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="J2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="9">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>300</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13.35</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>100</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="6">
+        <v>26.63</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>600</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="13">
+        <v>5</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12.63</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>300</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="6">
+        <v>22.76</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>300</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="6">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
+        <v>300</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="16">
+        <v>13.31</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="6">
+        <v>300</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="6">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="6">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="6">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="6">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="6">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="9">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B18:E18" xr:uid="{4ECB6F38-5054-EC46-AA83-F6EE3598F630}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:E25">
+      <sortCondition ref="B18:B25"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFABDBEE-3B5D-2445-8051-34CEA666F897}">
+  <dimension ref="B1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="7" width="19" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="J2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="2:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="9">
+        <v>296.61</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>300</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="16">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="16">
+        <v>243.44</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>100</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="6">
+        <v>240.57</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="6">
+        <v>241.72</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7" s="6">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="6">
+        <v>241.06</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="6">
+        <v>224.55</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
+        <v>100</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N9" s="6">
+        <v>3</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="6">
+        <v>666.11</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="9">
+        <v>100</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="9">
+        <v>3</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="6">
+        <v>666.11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="6">
+        <v>224.55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="6">
+        <v>241.06</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="6">
+        <v>241.72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="6">
+        <v>240.57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="6">
+        <v>243.44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9">
+        <v>296.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>